--- a/pred_ohlcv/54_21/2020-01-20 WOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 WOM ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>-415303.0941504604</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-516372.0697473904</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-662411.8942473903</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-662402.8942473903</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-661955.6896473903</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-661735.5865473903</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-661735.5865473903</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-668133.2410473903</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-668124.2410473903</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-668116.2410473903</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-668123.5410473903</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-668131.0410473903</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-668131.0410473903</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-668123.0410473903</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-668131.0410473903</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-725896.3214473902</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-781076.3917234256</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-781076.3917234256</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-781076.3917234256</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-802060.0855234256</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-798065.8217234256</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-798051.5462059381</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-798073.4659059381</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-803040.4659059381</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-838005.255005938</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-838012.755005938</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-838084.029305938</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-852782.7518059381</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-852735.7518059381</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-852743.2518059381</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-853726.2258059381</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-853526.2258059381</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-853326.2258059381</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-853507.2258059381</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-853507.2258059381</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-853507.2258059381</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-853515.2258059381</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-853198.7958059381</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-853198.7958059381</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-853198.7958059381</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-853190.7958059381</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-852898.7958059381</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-852898.7958059381</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-852898.7958059381</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-852898.7958059381</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-852898.7958059381</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-849854.842605938</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-958743.2677395375</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-961773.4264395376</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-992352.5662395376</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1005444.313539538</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1109178.248639537</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1161306.206239538</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1142235.345239538</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1145071.825539537</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1241745.078107233</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1256803.221707233</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1282777.652807233</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1274896.200607233</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1259534.157207233</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-1254111.917907233</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1254111.917907233</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1272121.246007233</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1223955.64063567</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1223955.64063567</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 WOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 WOM ohlcv.xlsx
@@ -1146,7 +1146,7 @@
         <v>-516372.0697473904</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-626441.5124473904</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-662411.8942473903</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-662402.8942473903</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-661955.6896473903</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-661735.5865473903</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-661735.5865473903</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-668133.2410473903</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-668124.2410473903</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-668116.2410473903</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-668123.5410473903</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-668131.0410473903</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-668131.0410473903</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-668123.0410473903</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-668131.0410473903</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-725896.3214473902</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-781076.3917234256</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-781076.3917234256</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-781076.3917234256</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-802060.0855234256</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-798065.8217234256</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-798051.5462059381</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-798073.4659059381</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-803040.4659059381</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-838005.255005938</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-838012.755005938</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-838084.029305938</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-852782.7518059381</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-852735.7518059381</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-852743.2518059381</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-853726.2258059381</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-853526.2258059381</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-853326.2258059381</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-853507.2258059381</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-853507.2258059381</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-853507.2258059381</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-853515.2258059381</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-853198.7958059381</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-853198.7958059381</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1005444.313539538</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1109178.248639537</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1161306.206239538</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1142235.345239538</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1150142.649607233</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-1124844.925607233</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1254111.917907233</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-1272121.246007233</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1271431.68293567</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1223955.64063567</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1223955.64063567</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
